--- a/OnBoard/output/trust/catch/Catch_Trust_17.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_17.xlsx
@@ -1228,7 +1228,7 @@
         <v>0.064</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21">
         <v>44.31034482758621</v>
@@ -1802,7 +1802,7 @@
         <v>0.59</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
         <v>44.31034482758621</v>
@@ -1884,7 +1884,7 @@
         <v>0.006</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>44.31034482758621</v>
